--- a/xlsx/财经 (杂志)_intext.xlsx
+++ b/xlsx/财经 (杂志)_intext.xlsx
@@ -29,13 +29,13 @@
     <t>中国</t>
   </si>
   <si>
-    <t>政策_政策_財經_财经 (杂志)</t>
+    <t>政策_政策_财经_财经 (杂志)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%B6%93</t>
   </si>
   <si>
-    <t>財經</t>
+    <t>财经</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%97%BB</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E8%A8%8A%E5%82%B3%E5%AA%92</t>
   </si>
   <si>
-    <t>財訊傳媒</t>
+    <t>财讯传媒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%82%E5%85%AC%E5%8F%B8</t>
